--- a/Data_processed/PL_W16.xlsx
+++ b/Data_processed/PL_W16.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PikesStuff/Desktop/Tris_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PikesStuff/github/McHugh-et-al/Data_processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{352A5C05-337F-E542-A0CA-781025253154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5773F6F0-1398-D248-9F1F-29ABC46EEE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="1220" windowWidth="13720" windowHeight="14000" activeTab="2" xr2:uid="{699B8A16-DB39-B746-8383-E8C631627F50}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="9">
   <si>
     <t>PAR</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Crypto_control</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>pmax</t>
   </si>
 </sst>
 </file>
@@ -83,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9F53F0-52B5-E643-B539-EABEE2C7AD46}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="A1:XFD1048576"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +427,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -434,8 +447,14 @@
       <c r="D2">
         <v>-3.9900249376558602E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -448,8 +467,14 @@
       <c r="D3">
         <v>1.2967581047381547E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -462,8 +487,14 @@
       <c r="D4">
         <v>2.1945137157107233E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -476,8 +507,14 @@
       <c r="D5">
         <v>3.790523690773068E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -490,8 +527,14 @@
       <c r="D6">
         <v>7.2817955112219448E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -504,8 +547,14 @@
       <c r="D7">
         <v>6.8827930174563591E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -518,8 +567,14 @@
       <c r="D8">
         <v>1.0174563591022444E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -532,8 +587,14 @@
       <c r="D9">
         <v>1.1371571072319203E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -546,8 +607,14 @@
       <c r="D10">
         <v>-2.422871910838314E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -560,8 +627,14 @@
       <c r="D11">
         <v>2.8536046949873472E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -574,8 +647,14 @@
       <c r="D12">
         <v>4.1458030474344479E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -588,8 +667,14 @@
       <c r="D13">
         <v>7.6993485166639746E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -602,8 +687,14 @@
       <c r="D14">
         <v>9.5299628492973671E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -616,8 +707,14 @@
       <c r="D15">
         <v>1.1791309966079795E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -630,8 +727,14 @@
       <c r="D16">
         <v>1.3729607494750447E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -644,8 +747,14 @@
       <c r="D17">
         <v>-1.076831960372584E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -658,8 +767,14 @@
       <c r="D18">
         <v>-4.9606299212598423E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -672,8 +787,14 @@
       <c r="D19">
         <v>1.2598425196850392E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -686,8 +807,14 @@
       <c r="D20">
         <v>5.2755905511811027E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -700,8 +827,14 @@
       <c r="D21">
         <v>6.7716535433070873E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -714,8 +847,14 @@
       <c r="D22">
         <v>7.7952755905511811E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -728,8 +867,14 @@
       <c r="D23">
         <v>1.858267716535433E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -742,8 +887,14 @@
       <c r="D24">
         <v>2.0944881889763781E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.24113119999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -755,6 +906,12 @@
       </c>
       <c r="D25">
         <v>2.7165354330708661E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.0322529999999999E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.24113119999999999</v>
       </c>
     </row>
   </sheetData>
@@ -764,15 +921,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F270C7-6F9C-2042-9126-88BE44823DFA}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:XFD1048576"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -785,8 +942,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -799,8 +962,14 @@
       <c r="D2">
         <v>1.1007154650522839E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F2">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -813,8 +982,14 @@
       <c r="D3">
         <v>1.9897548791329748E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F3">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -827,8 +1002,14 @@
       <c r="D4">
         <v>3.3868168155454892E-6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F4">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -841,8 +1022,14 @@
       <c r="D5">
         <v>4.1488505990432245E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F5">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -855,8 +1042,14 @@
       <c r="D6">
         <v>2.2861013504932053E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F6">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -869,8 +1062,14 @@
       <c r="D7">
         <v>4.1911858092375427E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F7">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -883,8 +1082,14 @@
       <c r="D8">
         <v>5.926929427204606E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F8">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -897,8 +1102,14 @@
       <c r="D9">
         <v>-2.8787942932136659E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F9">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -911,8 +1122,14 @@
       <c r="D10">
         <v>-1.0236578707916288E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F10">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -925,8 +1142,14 @@
       <c r="D11">
         <v>5.6869881710646044E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F11">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -939,8 +1162,14 @@
       <c r="D12">
         <v>-2.2747952684258416E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F12">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -953,8 +1182,14 @@
       <c r="D13">
         <v>1.0805277525022749E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F13">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -967,8 +1202,14 @@
       <c r="D14">
         <v>3.6965423111919927E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F14">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -981,8 +1222,14 @@
       <c r="D15">
         <v>3.2415832575068249E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F15">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -995,8 +1242,14 @@
       <c r="D16">
         <v>4.6064604185623296E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F16">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1009,8 +1262,14 @@
       <c r="D17">
         <v>7.2793448589626931E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F17">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1023,8 +1282,14 @@
       <c r="D18">
         <v>-1.7686886831560037E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F18">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1037,8 +1302,14 @@
       <c r="D19">
         <v>-6.9089401685781407E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F19">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1051,8 +1322,14 @@
       <c r="D20">
         <v>-8.2907282022937685E-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F20">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1065,8 +1342,14 @@
       <c r="D21">
         <v>-2.4872184606881306E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F21">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1079,8 +1362,14 @@
       <c r="D22">
         <v>1.7963244438303163E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F22">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1093,8 +1382,14 @@
       <c r="D23">
         <v>2.6253972640596933E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F23">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1107,8 +1402,14 @@
       <c r="D24">
         <v>3.6479204090092585E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F24">
+        <v>6.9251270000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1120,6 +1421,12 @@
       </c>
       <c r="D25">
         <v>5.1126157247478234E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.416555E-5</v>
+      </c>
+      <c r="F25">
+        <v>6.9251270000000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1129,15 +1436,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A64FEA-9084-094D-A129-02DFB79CB473}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1150,8 +1457,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1164,8 +1477,14 @@
       <c r="D2">
         <v>-2.4427480916030531E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1178,8 +1497,14 @@
       <c r="D3">
         <v>2.4045801526717557E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1192,8 +1517,14 @@
       <c r="D4">
         <v>3.8167938931297705E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1206,8 +1537,14 @@
       <c r="D5">
         <v>2.0610687022900762E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1220,8 +1557,14 @@
       <c r="D6">
         <v>6.0687022900763354E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1234,8 +1577,14 @@
       <c r="D7">
         <v>5.7251908396946556E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1248,8 +1597,14 @@
       <c r="D8">
         <v>6.6412213740458018E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -1262,8 +1617,14 @@
       <c r="D9">
         <v>9.5801526717557238E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1276,8 +1637,14 @@
       <c r="D10">
         <v>-2.1243523316062176E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1290,8 +1657,14 @@
       <c r="D11">
         <v>5.6994818652849741E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1304,8 +1677,14 @@
       <c r="D12">
         <v>-4.6632124352331611E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1318,8 +1697,14 @@
       <c r="D13">
         <v>2.590673575129534E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1332,8 +1717,14 @@
       <c r="D14">
         <v>4.2487046632124352E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -1346,8 +1737,14 @@
       <c r="D15">
         <v>6.1658031088082912E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1360,8 +1757,14 @@
       <c r="D16">
         <v>8.860103626943006E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1374,8 +1777,14 @@
       <c r="D17">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1388,8 +1797,14 @@
       <c r="D18">
         <v>-6.9900142653352338E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1402,8 +1817,14 @@
       <c r="D19">
         <v>-4.1844983357108884E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1416,8 +1837,14 @@
       <c r="D20">
         <v>4.7551117451260096E-7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1430,8 +1857,14 @@
       <c r="D21">
         <v>-1.9020446980504039E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1444,8 +1877,14 @@
       <c r="D22">
         <v>3.1859248692344266E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1458,8 +1897,14 @@
       <c r="D23">
         <v>4.9928673323823109E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1472,8 +1917,14 @@
       <c r="D24">
         <v>7.7983832620066564E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1485,6 +1936,12 @@
       </c>
       <c r="D25">
         <v>1.1459819305753684E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.21842800000000001</v>
       </c>
     </row>
   </sheetData>
